--- a/biology/Médecine/Fièvre_pourprée_des_montagnes_Rocheuses/Fièvre_pourprée_des_montagnes_Rocheuses.xlsx
+++ b/biology/Médecine/Fièvre_pourprée_des_montagnes_Rocheuses/Fièvre_pourprée_des_montagnes_Rocheuses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fi%C3%A8vre_pourpr%C3%A9e_des_montagnes_Rocheuses</t>
+          <t>Fièvre_pourprée_des_montagnes_Rocheuses</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La fièvre pourprée des montagnes Rocheuses est la rickettsiose la plus grave et la plus fréquente des États-Unis, et elle a été diagnostiquée partout dans le continent américain. Les synonymes pour la fièvre pourprée des montagnes Rocheuses dans d'autres pays sont les suivants : « Typhus à tiques, » « fièvre de Malvoisie » (en Colombie), « fièvre de São Paulo » ou « febre maculosa » (au Brésil), et « fiebre manchada » (au Mexique) . La maladie est provoquée par Rickettsia rickettsii, une  espèce de bactérie qui est transmise aux humains par une tique dure (Dermacentor). Les symptômes de la maladie sont la fièvre, des céphalées, et des myalgies, suivis de boutons purulents. En l’absence de traitement précoce et approprié, cette pathologie est à risque mortel.
 Il est maintenant reconnu que cette maladie est largement répandue dans l'ensemble du territoire des États-Unis, et s’étend au nord jusqu’au Canada et au sud en Amérique centrale et à certaines parties de l’Amérique du Sud. Entre 1981 et 1996, cette maladie a été signalée dans chaque État des États-Unis à l’exception d’Hawaii, du Vermont, du Maine, et de l’Alaska.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fi%C3%A8vre_pourpr%C3%A9e_des_montagnes_Rocheuses</t>
+          <t>Fièvre_pourprée_des_montagnes_Rocheuses</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La fièvre pourprée des montagnes Rocheuses, comme toutes les rickettsioses, est classée comme zoonose. Les zoonoses sont des maladies animales qui peuvent être transmises à l’homme. Beaucoup de zoonoses ont besoin d’un vecteur (par exemple, un moustique, une tique, ou des acariens) pour être transmises de l’hôte animal à l’hôte humain. Dans le cas de la fièvre pourprée des montagnes Rocheuses, les tiques sont les hôtes normaux, servant à la fois de réservoirs et de vecteurs pour R.rickettsii. Les tiques transmettent l’agent infectieux à des vertébrés essentiellement par leur piqûre. Moins fréquemment, l’infection peut survenir après une exposition aux tissus écrasés d’une tique, à ses fluides biologiques, ou à ses excréments.
 Une tique femelle peut transmettre R. rickettsii à ses œufs dans un processus appelé transmission par les œufs. Les tiques peuvent également s’infecter par R. rickettsii tout en se nourrissant du sang d’un hôte au stade de larve ou  de nymphe. Lorsque la tique se métamorphose dans sa forme suivante, R. rickettsii peut être transmis au deuxième hôte au cours du repas de sang. En outre, les tiques mâles peuvent transmettre R. rickettsii aux tiques femelles par l’intermédiaire des fluides corporels ou des spermatozoïdes pendant l’accouplement. Ces modes de transmission expliquent comment des générations ou des stades de développement larvaire successifs peuvent continuer à rester infectés. Une fois infectée, la tique peut rester porteuse du microbe pathogène pendant toute la durée de sa vie.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fi%C3%A8vre_pourpr%C3%A9e_des_montagnes_Rocheuses</t>
+          <t>Fièvre_pourprée_des_montagnes_Rocheuses</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La fièvre pourprée des montagnes Rocheuses est une maladie connue aux États-Unis depuis 1918. Ces 50 dernières années, environ 250 à 1 200 cas ont été rapportés annuellement, bien qu'il soit probable qu’il ait davantage de cas mais que beaucoup d’entre eux ne soient pas signalés (source CDC, United States Centers for Disease Control).
 Plus de 90 % des patients présentant la fièvre pourprée des montagnes Rocheuses sont infectés entre le mois d’avril et le mois d’août. Cette période correspond à la saison d’augmentation des effectifs des populations  de tiques du genre Dermacentor  adultes et nymphes. La notion d’une piqûre ou d'une exposition aux habitats infestés par les tiques est retrouvée dans approximativement 60 % des cas de fièvre pourprée des montagnes Rocheuses.
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fi%C3%A8vre_pourpr%C3%A9e_des_montagnes_Rocheuses</t>
+          <t>Fièvre_pourprée_des_montagnes_Rocheuses</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il peut être très difficile de diagnostiquer la  fièvre pourprée des montagnes Rocheuses à son début, même pour des médecins expérimentés qui connaissent la maladie.
 Les patients infectés par R. rickettsii consultent généralement un médecin pendant la première semaine de la maladie, après une période d'incubation d'environ une à deux semaines après une piqûre de tique. Le tableau clinique des premiers stades de la fièvre pourprée des montagnes Rocheuses n’est pas spécifique et peut ressembler à de nombreuses autres maladies infectieuses et non-infectieuses.
@@ -615,7 +633,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fi%C3%A8vre_pourpr%C3%A9e_des_montagnes_Rocheuses</t>
+          <t>Fièvre_pourprée_des_montagnes_Rocheuses</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -633,7 +651,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le traitement antibiotique approprié est initié immédiatement quand une suspicion de fièvre pourprée des montagnes Rocheuses est évoquée sur la base des constatations cliniques et épidémiologiques. Le traitement  ne doit pas être retardé par l’attente de la confirmation du diagnostic par le laboratoire.
 Si le patient est traité dans les 4 à 5 premiers jours de la maladie, la fièvre s'abaisse généralement dans un délai de 24 à 72 heures de traitement avec un antibiotique approprié (habituellement une tétracycline). En fait, l’absence de réponse à un traitement antibiotique par tétracycline est un argument contre le diagnostic de fièvre pourprée des montagnes Rocheuses. Les patients les plus sévèrement atteints peuvent avoir besoin de davantage de temps avant que la fièvre baisse, particulièrement si plusieurs organes ont été atteints. Le traitement préventif des patients non-malades qui viennent d’être piqués par une tique n'est pas recommandé et ne peut, en fait, que seulement retarder  le début de la maladie.
@@ -649,7 +669,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fi%C3%A8vre_pourpr%C3%A9e_des_montagnes_Rocheuses</t>
+          <t>Fièvre_pourprée_des_montagnes_Rocheuses</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -667,7 +687,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La fièvre pourprée des montagnes Rocheuses a été identifiée pour la première fois en 1896 dans la vallée de la Snake River dans l’Idaho et s'est à l'origine appelée la « rougeole noire » en raison de l'éruption caractéristique. C'était une maladie redoutée et fréquemment mortelle qui avait atteint des centaines de personnes dans cette région. Au début des années 1900, la distribution géographique identifiée de cette maladie s’est étendue jusqu’à entourer des régions des États-Unis allant au nord jusqu’à l’État de Washington et le Montana et au sud jusqu’à la Californie, l’Arizona, et le Nouveau-Mexique.
 Howard T. Ricketts fut le premier à établir l'identité de l'organisme infectieux qui provoque cette maladie. Lui et d'autres ont déchiffré les caractéristiques épidemiologiques de base de la maladie, y compris le rôle de vecteurs des tiques. Leurs études ont constaté que la fièvre pourprée des montagnes Rocheuses est provoquée par Rickettsia  rickettsii. Cette espèce survit dans la nature grâce à un cycle biologique complexe impliquant les tiques et des mammifères ; les humains sont considérés comme les hôtes accidentels et ne sont pas impliqués dans le cycle normal de transmission de ce microbe pathogène. Tragiquement – et par ironie du sort – le Dr Ricketts est mort du typhus (une autre rickettsiose) au Mexique en 1910, peu de temps après avoir achevé ses recherches remarquables sur la fièvre des montagnes Rocheuses.
